--- a/2012-6.xlsx
+++ b/2012-6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="705" windowWidth="19635" windowHeight="7365"/>
+    <workbookView xWindow="1200" yWindow="1275" windowWidth="19155" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="2012-6" sheetId="1" r:id="rId1"/>
